--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H2">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I2">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J2">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>7.646091489822668</v>
+        <v>0.08369973917433332</v>
       </c>
       <c r="R2">
-        <v>68.81482340840401</v>
+        <v>0.7532976525689999</v>
       </c>
       <c r="S2">
-        <v>0.1410240755489435</v>
+        <v>0.001376668085451006</v>
       </c>
       <c r="T2">
-        <v>0.1410240755489434</v>
+        <v>0.001376668085451006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H3">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I3">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J3">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>22.324362938977</v>
+        <v>0.219754980137</v>
       </c>
       <c r="R3">
-        <v>200.919266450793</v>
+        <v>1.977794821233</v>
       </c>
       <c r="S3">
-        <v>0.4117492773764002</v>
+        <v>0.003614463686002726</v>
       </c>
       <c r="T3">
-        <v>0.4117492773764</v>
+        <v>0.003614463686002727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H4">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I4">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J4">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>2.017690456911667</v>
+        <v>0.01577307037133334</v>
       </c>
       <c r="R4">
-        <v>18.159214112205</v>
+        <v>0.141957633342</v>
       </c>
       <c r="S4">
-        <v>0.03721416776252733</v>
+        <v>0.0002594307079566883</v>
       </c>
       <c r="T4">
-        <v>0.03721416776252731</v>
+        <v>0.0002594307079566883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H5">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I5">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J5">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>0.6168284481043332</v>
+        <v>0.005937515677333333</v>
       </c>
       <c r="R5">
-        <v>5.551456032939</v>
+        <v>0.053437641096</v>
       </c>
       <c r="S5">
-        <v>0.01137674873260253</v>
+        <v>9.765846847891231E-05</v>
       </c>
       <c r="T5">
-        <v>0.01137674873260253</v>
+        <v>9.765846847891233E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H6">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I6">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J6">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>3.410859199942667</v>
+        <v>8.502848736627666</v>
       </c>
       <c r="R6">
-        <v>30.697732799484</v>
+        <v>76.52563862964899</v>
       </c>
       <c r="S6">
-        <v>0.06290969263705207</v>
+        <v>0.1398522935268866</v>
       </c>
       <c r="T6">
-        <v>0.06290969263705205</v>
+        <v>0.1398522935268866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H7">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I7">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J7">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
-        <v>9.958716661266999</v>
+        <v>22.324362938977</v>
       </c>
       <c r="R7">
-        <v>89.628449951403</v>
+        <v>200.919266450793</v>
       </c>
       <c r="S7">
-        <v>0.183678002372636</v>
+        <v>0.3671843937542312</v>
       </c>
       <c r="T7">
-        <v>0.1836780023726359</v>
+        <v>0.3671843937542312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H8">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I8">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J8">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>0.9000752955616668</v>
+        <v>1.602347065864667</v>
       </c>
       <c r="R8">
-        <v>8.100677660055</v>
+        <v>14.421123592782</v>
       </c>
       <c r="S8">
-        <v>0.01660093743973367</v>
+        <v>0.02635492164195884</v>
       </c>
       <c r="T8">
-        <v>0.01660093743973367</v>
+        <v>0.02635492164195885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H9">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I9">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J9">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>0.2751621517743333</v>
+        <v>0.6031774790906667</v>
       </c>
       <c r="R9">
-        <v>2.476459365969</v>
+        <v>5.428597311816</v>
       </c>
       <c r="S9">
-        <v>0.00507507504084723</v>
+        <v>0.009920881397221226</v>
       </c>
       <c r="T9">
-        <v>0.00507507504084723</v>
+        <v>0.009920881397221229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H10">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I10">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J10">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>1.657624948709333</v>
+        <v>3.929769581200221</v>
       </c>
       <c r="R10">
-        <v>14.918624538384</v>
+        <v>35.367926230802</v>
       </c>
       <c r="S10">
-        <v>0.03057314005590328</v>
+        <v>0.06463566576170995</v>
       </c>
       <c r="T10">
-        <v>0.03057314005590327</v>
+        <v>0.06463566576170997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H11">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I11">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J11">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>4.839782655092</v>
+        <v>10.31767177267933</v>
       </c>
       <c r="R11">
-        <v>43.55804389582799</v>
+        <v>92.85904595411399</v>
       </c>
       <c r="S11">
-        <v>0.08926467538357821</v>
+        <v>0.1697019558928569</v>
       </c>
       <c r="T11">
-        <v>0.0892646753835782</v>
+        <v>0.1697019558928569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H12">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I12">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J12">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>0.4374227073533334</v>
+        <v>0.7405582473595556</v>
       </c>
       <c r="R12">
-        <v>3.93680436618</v>
+        <v>6.665024226236</v>
       </c>
       <c r="S12">
-        <v>0.008067799477776135</v>
+        <v>0.01218047887143314</v>
       </c>
       <c r="T12">
-        <v>0.008067799477776135</v>
+        <v>0.01218047887143314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.424064666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.272194</v>
+      </c>
+      <c r="I13">
+        <v>0.2511032435928821</v>
+      </c>
+      <c r="J13">
+        <v>0.2511032435928821</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1957573333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.587272</v>
+      </c>
+      <c r="O13">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="P13">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="Q13">
+        <v>0.2787711016408889</v>
+      </c>
+      <c r="R13">
+        <v>2.508939914768</v>
+      </c>
+      <c r="S13">
+        <v>0.004585143066882048</v>
+      </c>
+      <c r="T13">
+        <v>0.004585143066882049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.135585</v>
+      </c>
+      <c r="H14">
+        <v>3.406755</v>
+      </c>
+      <c r="I14">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J14">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.759544333333333</v>
+      </c>
+      <c r="N14">
+        <v>8.278632999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2574067337278401</v>
+      </c>
+      <c r="P14">
+        <v>0.2574067337278401</v>
+      </c>
+      <c r="Q14">
+        <v>3.133697151768333</v>
+      </c>
+      <c r="R14">
+        <v>28.203274365915</v>
+      </c>
+      <c r="S14">
+        <v>0.05154210635379251</v>
+      </c>
+      <c r="T14">
+        <v>0.05154210635379251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.135585</v>
+      </c>
+      <c r="H15">
+        <v>3.406755</v>
+      </c>
+      <c r="I15">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J15">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6758254232987829</v>
+      </c>
+      <c r="P15">
+        <v>0.6758254232987829</v>
+      </c>
+      <c r="Q15">
+        <v>8.227571102795</v>
+      </c>
+      <c r="R15">
+        <v>74.04813992515501</v>
+      </c>
+      <c r="S15">
+        <v>0.1353246099656921</v>
+      </c>
+      <c r="T15">
+        <v>0.1353246099656921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6679959999999999</v>
-      </c>
-      <c r="H13">
-        <v>2.003988</v>
-      </c>
-      <c r="I13">
-        <v>0.1303720230892577</v>
-      </c>
-      <c r="J13">
-        <v>0.1303720230892577</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2001876666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.600563</v>
-      </c>
-      <c r="O13">
-        <v>0.01891823194544989</v>
-      </c>
-      <c r="P13">
-        <v>0.01891823194544989</v>
-      </c>
-      <c r="Q13">
-        <v>0.1337245605826666</v>
-      </c>
-      <c r="R13">
-        <v>1.203521045244</v>
-      </c>
-      <c r="S13">
-        <v>0.002466408172000126</v>
-      </c>
-      <c r="T13">
-        <v>0.002466408172000126</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.135585</v>
+      </c>
+      <c r="H16">
+        <v>3.406755</v>
+      </c>
+      <c r="I16">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J16">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5200313333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.560094</v>
+      </c>
+      <c r="O16">
+        <v>0.0485078515798926</v>
+      </c>
+      <c r="P16">
+        <v>0.0485078515798926</v>
+      </c>
+      <c r="Q16">
+        <v>0.5905397816633334</v>
+      </c>
+      <c r="R16">
+        <v>5.314858034970001</v>
+      </c>
+      <c r="S16">
+        <v>0.009713020358543928</v>
+      </c>
+      <c r="T16">
+        <v>0.009713020358543928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.135585</v>
+      </c>
+      <c r="H17">
+        <v>3.406755</v>
+      </c>
+      <c r="I17">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J17">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1957573333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.587272</v>
+      </c>
+      <c r="O17">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="P17">
+        <v>0.01825999139348442</v>
+      </c>
+      <c r="Q17">
+        <v>0.2222990913733333</v>
+      </c>
+      <c r="R17">
+        <v>2.00069182236</v>
+      </c>
+      <c r="S17">
+        <v>0.003656308460902234</v>
+      </c>
+      <c r="T17">
+        <v>0.003656308460902234</v>
       </c>
     </row>
   </sheetData>
